--- a/runtime.xlsx
+++ b/runtime.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hjeon\2021_InternshipOEN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3BF41B5-AFD9-4AE0-B3BD-CFA2CC6ACBC2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69CEDB25-E4DD-4C68-8D21-777590CC27C2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7872" yWindow="1452" windowWidth="9048" windowHeight="8028" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -545,8 +545,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BCD23CE-CE74-4947-A4F4-390839D52447}">
   <dimension ref="A1:N5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -629,8 +629,8 @@
         <v>1.6400000000000001E-2</v>
       </c>
       <c r="N2">
-        <f>AVERAGE(2.69,2.52)</f>
-        <v>2.605</v>
+        <f>AVERAGE(2.69,2.51)</f>
+        <v>2.5999999999999996</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.4">
@@ -665,7 +665,8 @@
         <v>200000</v>
       </c>
       <c r="J4">
-        <v>2765</v>
+        <f>AVERAGE(2765, 2824)</f>
+        <v>2794.5</v>
       </c>
       <c r="K4">
         <v>9.7999999999999997E-3</v>
@@ -673,8 +674,12 @@
       <c r="L4">
         <v>9.7000000000000003E-3</v>
       </c>
+      <c r="M4">
+        <v>1.0699999999999999E-2</v>
+      </c>
       <c r="N4">
-        <v>2.54</v>
+        <f>AVERAGE(2.54, 2.58)</f>
+        <v>2.56</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.4">
@@ -686,5 +691,6 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/runtime.xlsx
+++ b/runtime.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hjeon\2021_InternshipOEN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69CEDB25-E4DD-4C68-8D21-777590CC27C2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A82DA785-6321-4869-BFFB-CA59143DEC1F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7872" yWindow="1452" windowWidth="9048" windowHeight="8028" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5088" yWindow="2112" windowWidth="17952" windowHeight="7104" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DataGeneration" sheetId="1" r:id="rId1"/>
-    <sheet name="DNN" sheetId="2" r:id="rId2"/>
+    <sheet name="ForwardModel" sheetId="2" r:id="rId2"/>
+    <sheet name="BackwardModel" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="33">
   <si>
     <t>Layers</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -112,6 +113,62 @@
     <t>Testset</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>scaled_testloss</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T_loss</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sqloss</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mae</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Runtime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Train_Loss</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Valid_Loss</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TMM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Test_loss</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sqloss, round</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -170,6 +227,2477 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ko-KR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ko-KR"/>
+              <a:t>Dataset Generation Runtime(s)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ko-KR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>DataGeneration!$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Time</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="ko-KR"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>DataGeneration!$B$6:$D$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>200</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>DataGeneration!$B$7:$D$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>195</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-51C9-457B-B436-E04A0A18DB85}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1507958751"/>
+        <c:axId val="1870511695"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1507958751"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ko-KR"/>
+                  <a:t>Values in 000's</a:t>
+                </a:r>
+                <a:endParaRPr lang="ko-KR" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ko-KR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1870511695"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1870511695"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1507958751"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ko-KR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ko-KR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ko-KR"/>
+              <a:t>#Datasets and Train Results</a:t>
+            </a:r>
+            <a:endParaRPr lang="ko-KR" altLang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.26660874601795542"/>
+          <c:y val="3.8659793814432991E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ko-KR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.10829473857036333"/>
+          <c:y val="0.18509450171821309"/>
+          <c:w val="0.79587805651139831"/>
+          <c:h val="0.55168202235029895"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>ForwardModel!$K$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Train_Loss</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>ForwardModel!$L$12:$N$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>200</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>ForwardModel!$L$14:$N$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1.3599999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.09E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.7999999999999997E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-DAF9-4339-BEDE-8851DB75DC52}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>ForwardModel!$K$15</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Valid_Loss</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>ForwardModel!$L$12:$N$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>200</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>ForwardModel!$L$15:$N$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1.52E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.1299999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.7000000000000003E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-DAF9-4339-BEDE-8851DB75DC52}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>ForwardModel!$K$16</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Test_loss</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="ko-KR"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>ForwardModel!$L$12:$N$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>200</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>ForwardModel!$L$16:$N$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1.6400000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.1900000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0699999999999999E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000D-DAF9-4339-BEDE-8851DB75DC52}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1891305743"/>
+        <c:axId val="1891312815"/>
+      </c:lineChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>ForwardModel!$K$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Runtime</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>ForwardModel!$L$12:$N$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>200</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>ForwardModel!$L$13:$N$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>960</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1966</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2794.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-DAF9-4339-BEDE-8851DB75DC52}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1891321135"/>
+        <c:axId val="1891304495"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1891305743"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ko-KR"/>
+                  <a:t>Values in 000's</a:t>
+                </a:r>
+                <a:endParaRPr lang="ko-KR" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ko-KR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1891312815"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1891312815"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="2.0000000000000004E-2"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="#,##0.000_);[Red]\(#,##0.000\)" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1891305743"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="5.000000000000001E-3"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1891304495"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1891321135"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="1000"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="1891321135"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1891304495"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ko-KR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ko-KR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>217170</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="차트 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2DD886DD-B939-4864-B9B0-3E3CB01F6E22}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>308610</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="차트 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B039ABB4-3082-4630-BC4F-071C0A423F9A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>372237</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>96269</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="그림 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{21D87C5C-C152-465F-81C0-15BCCE928570}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6705600" y="4198620"/>
+          <a:ext cx="4395597" cy="2969009"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -438,7 +2966,7 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -484,22 +3012,22 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
       <c r="B6">
-        <v>50000</v>
+        <v>50</v>
       </c>
       <c r="C6">
-        <v>100000</v>
+        <v>100</v>
       </c>
       <c r="D6">
-        <v>200000</v>
+        <v>200</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A7" t="s">
+        <v>29</v>
+      </c>
       <c r="B7">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C7">
         <v>97</v>
@@ -518,7 +3046,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B9">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C9">
         <v>96</v>
@@ -538,20 +3066,21 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BCD23CE-CE74-4947-A4F4-390839D52447}">
-  <dimension ref="A1:N5"/>
+  <dimension ref="A1:S16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="M5" sqref="M5"/>
+    <sheetView topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>9</v>
       </c>
@@ -586,7 +3115,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -632,8 +3161,20 @@
         <f>AVERAGE(2.69,2.51)</f>
         <v>2.5999999999999996</v>
       </c>
+      <c r="P2">
+        <v>50</v>
+      </c>
+      <c r="Q2">
+        <v>100</v>
+      </c>
+      <c r="R2">
+        <v>200</v>
+      </c>
+      <c r="S2" t="s">
+        <v>30</v>
+      </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.4">
       <c r="H3">
         <v>5000</v>
       </c>
@@ -656,8 +3197,24 @@
         <f>AVERAGE(2.9, 2.8, 2.79)</f>
         <v>2.8299999999999996</v>
       </c>
+      <c r="P3">
+        <f>AVERAGE(2.69,2.51)</f>
+        <v>2.5999999999999996</v>
+      </c>
+      <c r="Q3">
+        <f>AVERAGE(2.9, 2.8, 2.79)</f>
+        <v>2.8299999999999996</v>
+      </c>
+      <c r="R3">
+        <f>AVERAGE(2.54, 2.58)</f>
+        <v>2.56</v>
+      </c>
+      <c r="S3">
+        <f>AVERAGE(56,42.98, 42.44)</f>
+        <v>47.139999999999993</v>
+      </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.4">
       <c r="H4">
         <v>5000</v>
       </c>
@@ -682,10 +3239,764 @@
         <v>2.56</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.4">
       <c r="N5">
         <f>AVERAGE(56,42.98, 42.44)</f>
         <v>47.139999999999993</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="J7" t="s">
+        <v>16</v>
+      </c>
+      <c r="K7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="I8" t="s">
+        <v>23</v>
+      </c>
+      <c r="J8">
+        <v>960</v>
+      </c>
+      <c r="K8">
+        <f>AVERAGE(0.0136,0.0136)</f>
+        <v>1.3599999999999999E-2</v>
+      </c>
+      <c r="L8">
+        <f>AVERAGE(0.0149,0.0155)</f>
+        <v>1.52E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="I9" t="s">
+        <v>24</v>
+      </c>
+      <c r="J9">
+        <v>1966</v>
+      </c>
+      <c r="K9">
+        <v>1.09E-2</v>
+      </c>
+      <c r="L9">
+        <v>1.1299999999999999E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="I10" t="s">
+        <v>25</v>
+      </c>
+      <c r="J10">
+        <f>AVERAGE(2765, 2824)</f>
+        <v>2794.5</v>
+      </c>
+      <c r="K10">
+        <v>9.7999999999999997E-3</v>
+      </c>
+      <c r="L10">
+        <v>9.7000000000000003E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="L12">
+        <v>50</v>
+      </c>
+      <c r="M12">
+        <v>100</v>
+      </c>
+      <c r="N12">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="K13" t="s">
+        <v>26</v>
+      </c>
+      <c r="L13">
+        <v>960</v>
+      </c>
+      <c r="M13">
+        <v>1966</v>
+      </c>
+      <c r="N13">
+        <f>AVERAGE(2765, 2824)</f>
+        <v>2794.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="K14" t="s">
+        <v>27</v>
+      </c>
+      <c r="L14">
+        <f>AVERAGE(0.0136,0.0136)</f>
+        <v>1.3599999999999999E-2</v>
+      </c>
+      <c r="M14">
+        <v>1.09E-2</v>
+      </c>
+      <c r="N14">
+        <v>9.7999999999999997E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="K15" t="s">
+        <v>28</v>
+      </c>
+      <c r="L15">
+        <f>AVERAGE(0.0149,0.0155)</f>
+        <v>1.52E-2</v>
+      </c>
+      <c r="M15">
+        <v>1.1299999999999999E-2</v>
+      </c>
+      <c r="N15">
+        <v>9.7000000000000003E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="K16" t="s">
+        <v>31</v>
+      </c>
+      <c r="L16">
+        <v>1.6400000000000001E-2</v>
+      </c>
+      <c r="M16">
+        <v>1.1900000000000001E-2</v>
+      </c>
+      <c r="N16">
+        <v>1.0699999999999999E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D2D2EF3-5761-4D8E-894F-A75BDE5F253A}">
+  <dimension ref="A1:P17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B10" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M1" t="s">
+        <v>19</v>
+      </c>
+      <c r="N1" t="s">
+        <v>20</v>
+      </c>
+      <c r="O1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2">
+        <v>100</v>
+      </c>
+      <c r="C2">
+        <v>10000</v>
+      </c>
+      <c r="D2">
+        <v>300</v>
+      </c>
+      <c r="E2">
+        <v>300</v>
+      </c>
+      <c r="F2">
+        <v>300</v>
+      </c>
+      <c r="G2">
+        <v>300</v>
+      </c>
+      <c r="H2">
+        <v>5000</v>
+      </c>
+      <c r="I2">
+        <v>50000</v>
+      </c>
+      <c r="J2">
+        <v>332</v>
+      </c>
+      <c r="K2">
+        <v>0.12130000000000001</v>
+      </c>
+      <c r="L2">
+        <v>0.1638</v>
+      </c>
+      <c r="M2">
+        <v>0.1643</v>
+      </c>
+      <c r="N2">
+        <v>0.1069</v>
+      </c>
+      <c r="O2">
+        <v>2.81</v>
+      </c>
+      <c r="P2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3">
+        <v>100</v>
+      </c>
+      <c r="C3">
+        <v>10000</v>
+      </c>
+      <c r="D3">
+        <v>300</v>
+      </c>
+      <c r="E3">
+        <v>300</v>
+      </c>
+      <c r="F3">
+        <v>300</v>
+      </c>
+      <c r="G3">
+        <v>300</v>
+      </c>
+      <c r="H3">
+        <v>5000</v>
+      </c>
+      <c r="I3">
+        <v>200000</v>
+      </c>
+      <c r="N3">
+        <v>8.8700000000000001E-2</v>
+      </c>
+      <c r="P3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4">
+        <v>100</v>
+      </c>
+      <c r="C4">
+        <v>10000</v>
+      </c>
+      <c r="D4">
+        <v>300</v>
+      </c>
+      <c r="E4">
+        <v>300</v>
+      </c>
+      <c r="F4">
+        <v>300</v>
+      </c>
+      <c r="G4">
+        <v>300</v>
+      </c>
+      <c r="H4">
+        <v>5000</v>
+      </c>
+      <c r="I4">
+        <v>50000</v>
+      </c>
+      <c r="J4">
+        <v>766</v>
+      </c>
+      <c r="K4">
+        <v>5.2699999999999997E-2</v>
+      </c>
+      <c r="L4">
+        <v>5.21E-2</v>
+      </c>
+      <c r="M4">
+        <v>0.43290000000000001</v>
+      </c>
+      <c r="N4">
+        <v>6.7799999999999999E-2</v>
+      </c>
+      <c r="O4">
+        <f>AVERAGE(2.69,2.51)</f>
+        <v>2.5999999999999996</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5">
+        <v>100</v>
+      </c>
+      <c r="C5">
+        <v>10000</v>
+      </c>
+      <c r="D5">
+        <v>300</v>
+      </c>
+      <c r="E5">
+        <v>300</v>
+      </c>
+      <c r="F5">
+        <v>300</v>
+      </c>
+      <c r="G5">
+        <v>300</v>
+      </c>
+      <c r="H5">
+        <v>5000</v>
+      </c>
+      <c r="I5">
+        <v>200000</v>
+      </c>
+      <c r="J5">
+        <v>2813</v>
+      </c>
+      <c r="K5">
+        <v>4.8599999999999997E-2</v>
+      </c>
+      <c r="L5">
+        <v>4.87E-2</v>
+      </c>
+      <c r="M5">
+        <v>0.38040000000000002</v>
+      </c>
+      <c r="N5">
+        <v>5.3100000000000001E-2</v>
+      </c>
+      <c r="O5">
+        <v>2.15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6">
+        <v>100</v>
+      </c>
+      <c r="C6">
+        <v>10000</v>
+      </c>
+      <c r="D6">
+        <v>300</v>
+      </c>
+      <c r="E6">
+        <v>300</v>
+      </c>
+      <c r="F6">
+        <v>300</v>
+      </c>
+      <c r="G6">
+        <v>300</v>
+      </c>
+      <c r="H6">
+        <v>5000</v>
+      </c>
+      <c r="I6">
+        <v>200000</v>
+      </c>
+      <c r="K6">
+        <v>4.9430000000000003E-3</v>
+      </c>
+      <c r="L6">
+        <v>4.6129999999999999E-3</v>
+      </c>
+      <c r="N6">
+        <v>5.5399999999999998E-2</v>
+      </c>
+      <c r="P6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8">
+        <v>100</v>
+      </c>
+      <c r="C8">
+        <v>10000</v>
+      </c>
+      <c r="D8">
+        <v>200</v>
+      </c>
+      <c r="E8">
+        <v>500</v>
+      </c>
+      <c r="F8">
+        <v>200</v>
+      </c>
+      <c r="G8">
+        <v>20</v>
+      </c>
+      <c r="H8">
+        <v>5000</v>
+      </c>
+      <c r="I8">
+        <v>50000</v>
+      </c>
+      <c r="J8">
+        <v>1022</v>
+      </c>
+      <c r="K8">
+        <v>5.2499999999999998E-2</v>
+      </c>
+      <c r="L8">
+        <v>5.2299999999999999E-2</v>
+      </c>
+      <c r="M8">
+        <v>0.39600000000000002</v>
+      </c>
+      <c r="N8">
+        <v>6.3100000000000003E-2</v>
+      </c>
+      <c r="O8">
+        <v>2.11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9">
+        <v>100</v>
+      </c>
+      <c r="C9">
+        <v>10000</v>
+      </c>
+      <c r="D9">
+        <v>200</v>
+      </c>
+      <c r="E9">
+        <v>500</v>
+      </c>
+      <c r="F9">
+        <v>200</v>
+      </c>
+      <c r="G9">
+        <v>20</v>
+      </c>
+      <c r="H9">
+        <v>5000</v>
+      </c>
+      <c r="I9">
+        <v>50000</v>
+      </c>
+      <c r="J9">
+        <v>846</v>
+      </c>
+      <c r="K9">
+        <v>4.823E-3</v>
+      </c>
+      <c r="L9">
+        <v>4.6350000000000002E-3</v>
+      </c>
+      <c r="M9">
+        <v>0.35339999999999999</v>
+      </c>
+      <c r="N9">
+        <v>5.21E-2</v>
+      </c>
+      <c r="O9">
+        <v>2.31</v>
+      </c>
+      <c r="P9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10">
+        <v>100</v>
+      </c>
+      <c r="C10">
+        <v>10000</v>
+      </c>
+      <c r="D10">
+        <v>200</v>
+      </c>
+      <c r="E10">
+        <v>500</v>
+      </c>
+      <c r="F10">
+        <v>200</v>
+      </c>
+      <c r="G10">
+        <v>20</v>
+      </c>
+      <c r="H10">
+        <v>5000</v>
+      </c>
+      <c r="I10">
+        <v>200000</v>
+      </c>
+      <c r="J10">
+        <v>2637</v>
+      </c>
+      <c r="K10">
+        <v>5.104E-3</v>
+      </c>
+      <c r="L10">
+        <v>4.9649999999999998E-3</v>
+      </c>
+      <c r="M10">
+        <v>0.31169999999999998</v>
+      </c>
+      <c r="N10">
+        <v>4.6800000000000001E-2</v>
+      </c>
+      <c r="O10">
+        <v>2.11</v>
+      </c>
+      <c r="P10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>100</v>
+      </c>
+      <c r="C11">
+        <v>10000</v>
+      </c>
+      <c r="D11">
+        <v>200</v>
+      </c>
+      <c r="E11">
+        <v>500</v>
+      </c>
+      <c r="F11">
+        <v>200</v>
+      </c>
+      <c r="G11">
+        <v>20</v>
+      </c>
+      <c r="H11">
+        <v>5000</v>
+      </c>
+      <c r="I11">
+        <v>200000</v>
+      </c>
+      <c r="J11">
+        <v>2623</v>
+      </c>
+      <c r="K11">
+        <v>5.2600000000000001E-2</v>
+      </c>
+      <c r="L11">
+        <v>5.1799999999999999E-2</v>
+      </c>
+      <c r="M11">
+        <v>0.42759999999999998</v>
+      </c>
+      <c r="N11">
+        <v>7.4200000000000002E-2</v>
+      </c>
+      <c r="O11">
+        <v>1.93</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>200</v>
+      </c>
+      <c r="C12">
+        <v>10000</v>
+      </c>
+      <c r="D12">
+        <v>200</v>
+      </c>
+      <c r="E12">
+        <v>500</v>
+      </c>
+      <c r="F12">
+        <v>200</v>
+      </c>
+      <c r="G12">
+        <v>20</v>
+      </c>
+      <c r="H12">
+        <v>5000</v>
+      </c>
+      <c r="I12">
+        <v>50000</v>
+      </c>
+      <c r="J12">
+        <v>778</v>
+      </c>
+      <c r="K12">
+        <v>5.6399999999999999E-2</v>
+      </c>
+      <c r="L12">
+        <v>5.6300000000000003E-2</v>
+      </c>
+      <c r="M12">
+        <v>5.4800000000000001E-2</v>
+      </c>
+      <c r="N12">
+        <v>0.1004</v>
+      </c>
+      <c r="O12">
+        <v>2.06</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13">
+        <v>200</v>
+      </c>
+      <c r="C13">
+        <v>10000</v>
+      </c>
+      <c r="D13">
+        <v>200</v>
+      </c>
+      <c r="E13">
+        <v>500</v>
+      </c>
+      <c r="F13">
+        <v>200</v>
+      </c>
+      <c r="G13">
+        <v>20</v>
+      </c>
+      <c r="H13">
+        <v>5000</v>
+      </c>
+      <c r="I13">
+        <v>200000</v>
+      </c>
+      <c r="J13">
+        <v>1332</v>
+      </c>
+      <c r="K13">
+        <v>0.06</v>
+      </c>
+      <c r="N13">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="B14">
+        <v>100</v>
+      </c>
+      <c r="C14">
+        <v>10000</v>
+      </c>
+      <c r="D14">
+        <v>200</v>
+      </c>
+      <c r="E14">
+        <v>500</v>
+      </c>
+      <c r="F14">
+        <v>200</v>
+      </c>
+      <c r="G14">
+        <v>20</v>
+      </c>
+      <c r="H14">
+        <v>5000</v>
+      </c>
+      <c r="I14">
+        <v>200000</v>
+      </c>
+      <c r="M14">
+        <v>0.31780000000000003</v>
+      </c>
+      <c r="N14">
+        <v>4.9399999999999999E-2</v>
+      </c>
+      <c r="P14" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A15" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="2:16" x14ac:dyDescent="0.4">
+      <c r="B17">
+        <v>100</v>
+      </c>
+      <c r="C17">
+        <v>10000</v>
+      </c>
+      <c r="D17">
+        <v>300</v>
+      </c>
+      <c r="E17">
+        <v>500</v>
+      </c>
+      <c r="F17">
+        <v>300</v>
+      </c>
+      <c r="G17">
+        <v>100</v>
+      </c>
+      <c r="H17">
+        <v>5000</v>
+      </c>
+      <c r="I17">
+        <v>200000</v>
+      </c>
+      <c r="N17">
+        <v>0.13469999999999999</v>
+      </c>
+      <c r="P17" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/runtime.xlsx
+++ b/runtime.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hjeon\2021_InternshipOEN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A82DA785-6321-4869-BFFB-CA59143DEC1F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C73F41E-ED47-4267-AB80-6E087C69EF4E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5088" yWindow="2112" windowWidth="17952" windowHeight="7104" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3672" yWindow="2112" windowWidth="17952" windowHeight="7104" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DataGeneration" sheetId="1" r:id="rId1"/>
@@ -3074,7 +3074,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BCD23CE-CE74-4947-A4F4-390839D52447}">
   <dimension ref="A1:S16"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="F4" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
@@ -3383,8 +3383,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D2D2EF3-5761-4D8E-894F-A75BDE5F253A}">
   <dimension ref="A1:P17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B10" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -3786,7 +3786,7 @@
         <v>0.31169999999999998</v>
       </c>
       <c r="N10">
-        <v>4.6800000000000001E-2</v>
+        <v>4.6399999999999997E-2</v>
       </c>
       <c r="O10">
         <v>2.11</v>
